--- a/LANDICHO, ROSALINA BAYBAY.xlsx
+++ b/LANDICHO, ROSALINA BAYBAY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35F1577-8D09-4488-A2AD-4B62491FB0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E35B73-5D3A-465A-A247-7ADC835BCAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>12/3,7,9,12,13/2022</t>
   </si>
 </sst>
 </file>
@@ -908,7 +914,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1237,12 +1243,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A4" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1401,7 +1407,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>80.203999999999994</v>
+        <v>57.704000000000001</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1411,7 +1417,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>62.5</v>
+        <v>64</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -1662,11 +1668,15 @@
       <c r="A22" s="24">
         <v>43435</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="C22" s="14">
         <v>1.25</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="12">
+        <v>5</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="12"/>
       <c r="G22" s="14">
@@ -1920,11 +1930,15 @@
       <c r="A35" s="24">
         <v>43800</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="C35" s="14">
         <v>1.25</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="12">
+        <v>5</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="12"/>
       <c r="G35" s="14">
@@ -2178,11 +2192,15 @@
       <c r="A48" s="24">
         <v>44166</v>
       </c>
-      <c r="B48" s="12"/>
+      <c r="B48" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="C48" s="14">
         <v>1.25</v>
       </c>
-      <c r="D48" s="12"/>
+      <c r="D48" s="12">
+        <v>5</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="12"/>
       <c r="G48" s="14">
@@ -2436,11 +2454,15 @@
       <c r="A61" s="24">
         <v>44531</v>
       </c>
-      <c r="B61" s="13"/>
+      <c r="B61" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="C61" s="14">
         <v>1.25</v>
       </c>
-      <c r="D61" s="13"/>
+      <c r="D61" s="13">
+        <v>5</v>
+      </c>
       <c r="E61" s="10"/>
       <c r="F61" s="13"/>
       <c r="G61" s="14">
@@ -2747,13 +2769,15 @@
       <c r="B76" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="14"/>
+      <c r="C76" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="40"/>
       <c r="E76" s="9"/>
       <c r="F76" s="21"/>
-      <c r="G76" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="40">
         <v>1</v>
@@ -2766,7 +2790,9 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24"/>
-      <c r="B77" s="21"/>
+      <c r="B77" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="C77" s="14"/>
       <c r="D77" s="40"/>
       <c r="E77" s="9"/>
@@ -2775,26 +2801,40 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H77" s="40"/>
+      <c r="H77" s="40">
+        <v>1</v>
+      </c>
       <c r="I77" s="9"/>
       <c r="J77" s="12"/>
-      <c r="K77" s="21"/>
+      <c r="K77" s="50">
+        <v>44893</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="41"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="40"/>
+      <c r="A78" s="24">
+        <v>44896</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D78" s="40">
+        <v>5</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="9"/>
       <c r="J78" s="12"/>
-      <c r="K78" s="21"/>
+      <c r="K78" s="21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
@@ -3709,20 +3749,36 @@
       <c r="K135" s="21"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="42"/>
-      <c r="B136" s="16"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="44"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="44"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="13"/>
-      <c r="K136" s="16"/>
+      <c r="A136" s="41"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="40"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="40"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="21"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="42"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="44"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="44"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/LANDICHO, ROSALINA BAYBAY.xlsx
+++ b/LANDICHO, ROSALINA BAYBAY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E35B73-5D3A-465A-A247-7ADC835BCAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6412B3-6D40-400E-82DB-D98BE43B93DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>12/3,7,9,12,13/2022</t>
+  </si>
+  <si>
+    <t>SOLO P(5-0-0)</t>
+  </si>
+  <si>
+    <t>12/23,26-28,31</t>
   </si>
 </sst>
 </file>
@@ -1246,9 +1252,9 @@
   <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2838,7 +2844,9 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
-      <c r="B79" s="21"/>
+      <c r="B79" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="C79" s="14"/>
       <c r="D79" s="40"/>
       <c r="E79" s="9"/>
@@ -2850,7 +2858,9 @@
       <c r="H79" s="40"/>
       <c r="I79" s="9"/>
       <c r="J79" s="12"/>
-      <c r="K79" s="21"/>
+      <c r="K79" s="21" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
